--- a/server 239.xlsx
+++ b/server 239.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jetbrain-workspace\iEEEHighScore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A48D8F-24C6-456D-A1E6-C1AA2D0AC90B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE9208A-B1B5-44FF-AACE-501D74CB1F44}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="15375" windowHeight="9825" activeTab="1" xr2:uid="{0BC1823F-1B33-49BB-B0C9-C84C7805B805}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="15375" windowHeight="9825" firstSheet="1" activeTab="3" xr2:uid="{0BC1823F-1B33-49BB-B0C9-C84C7805B805}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="giladcrazy" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="240">
   <si>
     <t>*</t>
   </si>
@@ -26225,1209 +26226,1209 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B6B2ED-731B-475D-A3C3-398EBF38CD40}">
-  <dimension ref="A5:A243"/>
+  <dimension ref="A4:A242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
         <v>239</v>
       </c>
     </row>
@@ -27476,4 +27477,3132 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E4C666-FFA8-4B29-ABCC-FB85BD14B899}">
+  <dimension ref="A5:C243"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C243"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="str">
+        <f>LEFT(A5,10)</f>
+        <v>0054030012</v>
+      </c>
+      <c r="C5" t="str">
+        <f xml:space="preserve"> """"&amp;B5&amp;""","</f>
+        <v>"0054030012",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" ref="B6:B69" si="0">LEFT(A6,10)</f>
+        <v>0043020501</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6:C69" si="1" xml:space="preserve"> """"&amp;B6&amp;""","</f>
+        <v>"0043020501",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>0032010450</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>"0032010450",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>0021000345</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>"0021000345",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>0010005234</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>"0010005234",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>0000054123</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>"0000054123",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>0000543012</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>"0000543012",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>0000432501</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>"0000432501",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>0000321450</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>"0000321450",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>0000210345</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>"0000210345",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>0005100234</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>"0005100234",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>0004005123</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>"0004005123",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>0003054012</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>"0003054012",</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>0002043501</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>"0002043501",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>0001032450</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>"0001032450",</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>0050021340</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>"0050021340",</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>0040010235</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>"0040010235",</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>0030500124</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>"0030500124",</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>0020405013</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>"0020405013",</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>0010304502</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>"0010304502",</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>0000203451</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>"0000203451",</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>0005102340</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>"0005102340",</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>0054001230</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>"0054001230",</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>0043500120</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>"0043500120",</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>0032400015</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>"0032400015",</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>0021300504</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>"0021300504",</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>0010250403</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>"0010250403",</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>0005140302</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>"0005140302",</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>0004030251</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>"0004030251",</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>0003520140</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>"0003520140",</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>0002410035</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>"0002410035",</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>0001305024</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>"0001305024",</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>0500204013</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>"0500204013",</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>0400103502</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>"0400103502",</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>0300002451</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>"0300002451",</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>0200051340</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v>"0200051340",</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>0100040235</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v>"0100040235",</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>5000030124</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="1"/>
+        <v>"5000030124",</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>4000025013</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="1"/>
+        <v>"4000025013",</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>3000014502</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="1"/>
+        <v>"3000014502",</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>2000003451</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="1"/>
+        <v>"2000003451",</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>1000502340</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="1"/>
+        <v>"1000502340",</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>0050401230</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="1"/>
+        <v>"0050401230",</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>0040350120</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="1"/>
+        <v>"0040350120",</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>0030240015</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="1"/>
+        <v>"0030240015",</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>0020135004</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="1"/>
+        <v>"0020135004",</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>0010024053</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="1"/>
+        <v>"0010024053",</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>0500013042</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="1"/>
+        <v>"0500013042",</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>0405002031</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="1"/>
+        <v>"0405002031",</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>0304001520</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="1"/>
+        <v>"0304001520",</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>0203000415</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="1"/>
+        <v>"0203000415",</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>0102005304</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="1"/>
+        <v>"0102005304",</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>0001504203</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="1"/>
+        <v>"0001504203",</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>5000403102</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="1"/>
+        <v>"5000403102",</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>4000302051</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="1"/>
+        <v>"4000302051",</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>3000251040</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="1"/>
+        <v>"3000251040",</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>2000140035</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="1"/>
+        <v>"2000140035",</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>1005030024</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="1"/>
+        <v>"1005030024",</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>0504020013</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="1"/>
+        <v>"0504020013",</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>0403010502</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="1"/>
+        <v>"0403010502",</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>0302500401</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="1"/>
+        <v>"0302500401",</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>0201400350</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="1"/>
+        <v>"0201400350",</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="0"/>
+        <v>0100300245</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="1"/>
+        <v>"0100300245",</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="0"/>
+        <v>5000200134</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>"5000200134",</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="0"/>
+        <v>4005100023</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>"4005100023",</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" ref="B70:B133" si="2">LEFT(A70,10)</f>
+        <v>3004000512</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" ref="C70:C133" si="3" xml:space="preserve"> """"&amp;B70&amp;""","</f>
+        <v>"3004000512",</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="2"/>
+        <v>2003005401</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="3"/>
+        <v>"2003005401",</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="2"/>
+        <v>1002054300</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="3"/>
+        <v>"1002054300",</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="2"/>
+        <v>0001543200</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="3"/>
+        <v>"0001543200",</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="2"/>
+        <v>0050432100</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="3"/>
+        <v>"0050432100",</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="2"/>
+        <v>0040321050</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="3"/>
+        <v>"0040321050",</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="2"/>
+        <v>0035210040</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="3"/>
+        <v>"0035210040",</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="2"/>
+        <v>0024105030</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="3"/>
+        <v>"0024105030",</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="2"/>
+        <v>0013004025</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="3"/>
+        <v>"0013004025",</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="2"/>
+        <v>5002003014</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="3"/>
+        <v>"5002003014",</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="2"/>
+        <v>4001052003</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="3"/>
+        <v>"4001052003",</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="2"/>
+        <v>3000541002</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="3"/>
+        <v>"3000541002",</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="2"/>
+        <v>2000430501</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="3"/>
+        <v>"2000430501",</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>79</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="2"/>
+        <v>1000325400</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="3"/>
+        <v>"1000325400",</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="2"/>
+        <v>0500214300</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="3"/>
+        <v>"0500214300",</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="2"/>
+        <v>0400103250</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="3"/>
+        <v>"0400103250",</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="2"/>
+        <v>0350002140</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="3"/>
+        <v>"0350002140",</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="2"/>
+        <v>0240001035</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="3"/>
+        <v>"0240001035",</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="2"/>
+        <v>0130000524</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="3"/>
+        <v>"0130000524",</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="2"/>
+        <v>5020000413</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="3"/>
+        <v>"5020000413",</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>86</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="2"/>
+        <v>4010005302</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="3"/>
+        <v>"4010005302",</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>87</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="2"/>
+        <v>3500004201</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="3"/>
+        <v>"3500004201",</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="2"/>
+        <v>2400003150</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="3"/>
+        <v>"2400003150",</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="2"/>
+        <v>1300052040</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="3"/>
+        <v>"1300052040",</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>90</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="2"/>
+        <v>0200541030</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="3"/>
+        <v>"0200541030",</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>91</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="2"/>
+        <v>0100430520</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="3"/>
+        <v>"0100430520",</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="2"/>
+        <v>5000320410</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="3"/>
+        <v>"5000320410",</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="2"/>
+        <v>4005210300</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="3"/>
+        <v>"4005210300",</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="2"/>
+        <v>3004100205</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="3"/>
+        <v>"3004100205",</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="2"/>
+        <v>2003050104</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="3"/>
+        <v>"2003050104",</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="2"/>
+        <v>1002540003</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="3"/>
+        <v>"1002540003",</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>97</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="2"/>
+        <v>0001435002</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="3"/>
+        <v>"0001435002",</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>98</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="2"/>
+        <v>0500324001</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="3"/>
+        <v>"0500324001",</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="2"/>
+        <v>0405213000</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="3"/>
+        <v>"0405213000",</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>100</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="2"/>
+        <v>0304102005</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="3"/>
+        <v>"0304102005",</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="2"/>
+        <v>0203051004</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="3"/>
+        <v>"0203051004",</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>102</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="2"/>
+        <v>0152040003</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="3"/>
+        <v>"0152040003",</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="2"/>
+        <v>0041035002</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="3"/>
+        <v>"0041035002",</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>104</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="2"/>
+        <v>0030024501</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="3"/>
+        <v>"0030024501",</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>105</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="2"/>
+        <v>0025013400</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="3"/>
+        <v>"0025013400",</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>106</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="2"/>
+        <v>0014502300</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="3"/>
+        <v>"0014502300",</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>107</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="2"/>
+        <v>0503401200</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="3"/>
+        <v>"0503401200",</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>108</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="2"/>
+        <v>0402350100</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="3"/>
+        <v>"0402350100",</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>109</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="2"/>
+        <v>0301240005</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="3"/>
+        <v>"0301240005",</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>110</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="2"/>
+        <v>0200130054</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="3"/>
+        <v>"0200130054",</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>111</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="2"/>
+        <v>0150020043</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="3"/>
+        <v>"0150020043",</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>112</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="2"/>
+        <v>5040010032</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="3"/>
+        <v>"5040010032",</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>113</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" si="2"/>
+        <v>4030005021</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="3"/>
+        <v>"4030005021",</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>114</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="2"/>
+        <v>3020004510</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="3"/>
+        <v>"3020004510",</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>115</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="2"/>
+        <v>2010053400</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="3"/>
+        <v>"2010053400",</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>116</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="2"/>
+        <v>1500042300</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="3"/>
+        <v>"1500042300",</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>117</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="2"/>
+        <v>0400031205</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="3"/>
+        <v>"0400031205",</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>118</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="2"/>
+        <v>0300520104</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="3"/>
+        <v>"0300520104",</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>119</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="2"/>
+        <v>0250410003</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="3"/>
+        <v>"0250410003",</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>120</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="2"/>
+        <v>0140300052</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="3"/>
+        <v>"0140300052",</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>121</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="2"/>
+        <v>5030200041</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="3"/>
+        <v>"5030200041",</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>122</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="2"/>
+        <v>4020100530</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="3"/>
+        <v>"4020100530",</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>123</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="2"/>
+        <v>3010050420</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="3"/>
+        <v>"3010050420",</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>124</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="2"/>
+        <v>2005040310</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="3"/>
+        <v>"2005040310",</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>125</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="2"/>
+        <v>1054030200</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" si="3"/>
+        <v>"1054030200",</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>126</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" si="2"/>
+        <v>0043520100</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" si="3"/>
+        <v>"0043520100",</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>127</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" si="2"/>
+        <v>0032415000</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" si="3"/>
+        <v>"0032415000",</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>128</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" si="2"/>
+        <v>0021304005</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" si="3"/>
+        <v>"0021304005",</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>129</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" si="2"/>
+        <v>0510203004</v>
+      </c>
+      <c r="C133" t="str">
+        <f t="shared" si="3"/>
+        <v>"0510203004",</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>130</v>
+      </c>
+      <c r="B134" t="str">
+        <f t="shared" ref="B134:B197" si="4">LEFT(A134,10)</f>
+        <v>5400102003</v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" ref="C134:C197" si="5" xml:space="preserve"> """"&amp;B134&amp;""","</f>
+        <v>"5400102003",</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>131</v>
+      </c>
+      <c r="B135" t="str">
+        <f t="shared" si="4"/>
+        <v>4300001052</v>
+      </c>
+      <c r="C135" t="str">
+        <f t="shared" si="5"/>
+        <v>"4300001052",</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>132</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="4"/>
+        <v>3200000541</v>
+      </c>
+      <c r="C136" t="str">
+        <f t="shared" si="5"/>
+        <v>"3200000541",</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>133</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" si="4"/>
+        <v>2105000430</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" si="5"/>
+        <v>"2105000430",</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>134</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" si="4"/>
+        <v>1054000320</v>
+      </c>
+      <c r="C138" t="str">
+        <f t="shared" si="5"/>
+        <v>"1054000320",</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>135</v>
+      </c>
+      <c r="B139" t="str">
+        <f t="shared" si="4"/>
+        <v>0543000210</v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" si="5"/>
+        <v>"0543000210",</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="4"/>
+        <v>0432000105</v>
+      </c>
+      <c r="C140" t="str">
+        <f t="shared" si="5"/>
+        <v>"0432000105",</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>137</v>
+      </c>
+      <c r="B141" t="str">
+        <f t="shared" si="4"/>
+        <v>0321000054</v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" si="5"/>
+        <v>"0321000054",</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>138</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="4"/>
+        <v>5210000043</v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" si="5"/>
+        <v>"5210000043",</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>139</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="4"/>
+        <v>4105000032</v>
+      </c>
+      <c r="C143" t="str">
+        <f t="shared" si="5"/>
+        <v>"4105000032",</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>140</v>
+      </c>
+      <c r="B144" t="str">
+        <f t="shared" si="4"/>
+        <v>3054000021</v>
+      </c>
+      <c r="C144" t="str">
+        <f t="shared" si="5"/>
+        <v>"3054000021",</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>141</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="4"/>
+        <v>2043005010</v>
+      </c>
+      <c r="C145" t="str">
+        <f t="shared" si="5"/>
+        <v>"2043005010",</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>142</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="4"/>
+        <v>1032004005</v>
+      </c>
+      <c r="C146" t="str">
+        <f t="shared" si="5"/>
+        <v>"1032004005",</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>143</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="4"/>
+        <v>0521003004</v>
+      </c>
+      <c r="C147" t="str">
+        <f t="shared" si="5"/>
+        <v>"0521003004",</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>144</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="4"/>
+        <v>0410052003</v>
+      </c>
+      <c r="C148" t="str">
+        <f t="shared" si="5"/>
+        <v>"0410052003",</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>145</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="4"/>
+        <v>5300041002</v>
+      </c>
+      <c r="C149" t="str">
+        <f t="shared" si="5"/>
+        <v>"5300041002",</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>146</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="4"/>
+        <v>4200030051</v>
+      </c>
+      <c r="C150" t="str">
+        <f t="shared" si="5"/>
+        <v>"4200030051",</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>147</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="4"/>
+        <v>3100520040</v>
+      </c>
+      <c r="C151" t="str">
+        <f t="shared" si="5"/>
+        <v>"3100520040",</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>148</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="4"/>
+        <v>2005410030</v>
+      </c>
+      <c r="C152" t="str">
+        <f t="shared" si="5"/>
+        <v>"2005410030",</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>149</v>
+      </c>
+      <c r="B153" t="str">
+        <f t="shared" si="4"/>
+        <v>1004305020</v>
+      </c>
+      <c r="C153" t="str">
+        <f t="shared" si="5"/>
+        <v>"1004305020",</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>150</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" si="4"/>
+        <v>0003254010</v>
+      </c>
+      <c r="C154" t="str">
+        <f t="shared" si="5"/>
+        <v>"0003254010",</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>151</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="4"/>
+        <v>5002143000</v>
+      </c>
+      <c r="C155" t="str">
+        <f t="shared" si="5"/>
+        <v>"5002143000",</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>152</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="4"/>
+        <v>4001032050</v>
+      </c>
+      <c r="C156" t="str">
+        <f t="shared" si="5"/>
+        <v>"4001032050",</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>153</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="4"/>
+        <v>3000021540</v>
+      </c>
+      <c r="C157" t="str">
+        <f t="shared" si="5"/>
+        <v>"3000021540",</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>154</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="4"/>
+        <v>2500010430</v>
+      </c>
+      <c r="C158" t="str">
+        <f t="shared" si="5"/>
+        <v>"2500010430",</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>155</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" si="4"/>
+        <v>1400500320</v>
+      </c>
+      <c r="C159" t="str">
+        <f t="shared" si="5"/>
+        <v>"1400500320",</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>156</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" si="4"/>
+        <v>0350400210</v>
+      </c>
+      <c r="C160" t="str">
+        <f t="shared" si="5"/>
+        <v>"0350400210",</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>157</v>
+      </c>
+      <c r="B161" t="str">
+        <f t="shared" si="4"/>
+        <v>0240300105</v>
+      </c>
+      <c r="C161" t="str">
+        <f t="shared" si="5"/>
+        <v>"0240300105",</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>158</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="4"/>
+        <v>0135200004</v>
+      </c>
+      <c r="C162" t="str">
+        <f t="shared" si="5"/>
+        <v>"0135200004",</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>159</v>
+      </c>
+      <c r="B163" t="str">
+        <f t="shared" si="4"/>
+        <v>0024150003</v>
+      </c>
+      <c r="C163" t="str">
+        <f t="shared" si="5"/>
+        <v>"0024150003",</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>160</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="4"/>
+        <v>5013040002</v>
+      </c>
+      <c r="C164" t="str">
+        <f t="shared" si="5"/>
+        <v>"5013040002",</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>161</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="4"/>
+        <v>4502030001</v>
+      </c>
+      <c r="C165" t="str">
+        <f t="shared" si="5"/>
+        <v>"4502030001",</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>162</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="4"/>
+        <v>3401020050</v>
+      </c>
+      <c r="C166" t="str">
+        <f t="shared" si="5"/>
+        <v>"3401020050",</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>163</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" si="4"/>
+        <v>2350010040</v>
+      </c>
+      <c r="C167" t="str">
+        <f t="shared" si="5"/>
+        <v>"2350010040",</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>164</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="4"/>
+        <v>1240005030</v>
+      </c>
+      <c r="C168" t="str">
+        <f t="shared" si="5"/>
+        <v>"1240005030",</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>165</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" si="4"/>
+        <v>0130054020</v>
+      </c>
+      <c r="C169" t="str">
+        <f t="shared" si="5"/>
+        <v>"0130054020",</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>166</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" si="4"/>
+        <v>0025043010</v>
+      </c>
+      <c r="C170" t="str">
+        <f t="shared" si="5"/>
+        <v>"0025043010",</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>167</v>
+      </c>
+      <c r="B171" t="str">
+        <f t="shared" si="4"/>
+        <v>0514032000</v>
+      </c>
+      <c r="C171" t="str">
+        <f t="shared" si="5"/>
+        <v>"0514032000",</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>168</v>
+      </c>
+      <c r="B172" t="str">
+        <f t="shared" si="4"/>
+        <v>0403021050</v>
+      </c>
+      <c r="C172" t="str">
+        <f t="shared" si="5"/>
+        <v>"0403021050",</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>169</v>
+      </c>
+      <c r="B173" t="str">
+        <f t="shared" si="4"/>
+        <v>0302510040</v>
+      </c>
+      <c r="C173" t="str">
+        <f t="shared" si="5"/>
+        <v>"0302510040",</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>170</v>
+      </c>
+      <c r="B174" t="str">
+        <f t="shared" si="4"/>
+        <v>0201405030</v>
+      </c>
+      <c r="C174" t="str">
+        <f t="shared" si="5"/>
+        <v>"0201405030",</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>171</v>
+      </c>
+      <c r="B175" t="str">
+        <f t="shared" si="4"/>
+        <v>0150304020</v>
+      </c>
+      <c r="C175" t="str">
+        <f t="shared" si="5"/>
+        <v>"0150304020",</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>172</v>
+      </c>
+      <c r="B176" t="str">
+        <f t="shared" si="4"/>
+        <v>5040203010</v>
+      </c>
+      <c r="C176" t="str">
+        <f t="shared" si="5"/>
+        <v>"5040203010",</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>173</v>
+      </c>
+      <c r="B177" t="str">
+        <f t="shared" si="4"/>
+        <v>4030102005</v>
+      </c>
+      <c r="C177" t="str">
+        <f t="shared" si="5"/>
+        <v>"4030102005",</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>174</v>
+      </c>
+      <c r="B178" t="str">
+        <f t="shared" si="4"/>
+        <v>3020051004</v>
+      </c>
+      <c r="C178" t="str">
+        <f t="shared" si="5"/>
+        <v>"3020051004",</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>175</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="4"/>
+        <v>2010040503</v>
+      </c>
+      <c r="C179" t="str">
+        <f t="shared" si="5"/>
+        <v>"2010040503",</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>176</v>
+      </c>
+      <c r="B180" t="str">
+        <f t="shared" si="4"/>
+        <v>1500030402</v>
+      </c>
+      <c r="C180" t="str">
+        <f t="shared" si="5"/>
+        <v>"1500030402",</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>177</v>
+      </c>
+      <c r="B181" t="str">
+        <f t="shared" si="4"/>
+        <v>0450020301</v>
+      </c>
+      <c r="C181" t="str">
+        <f t="shared" si="5"/>
+        <v>"0450020301",</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>178</v>
+      </c>
+      <c r="B182" t="str">
+        <f t="shared" si="4"/>
+        <v>0340010250</v>
+      </c>
+      <c r="C182" t="str">
+        <f t="shared" si="5"/>
+        <v>"0340010250",</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>179</v>
+      </c>
+      <c r="B183" t="str">
+        <f t="shared" si="4"/>
+        <v>5230000140</v>
+      </c>
+      <c r="C183" t="str">
+        <f t="shared" si="5"/>
+        <v>"5230000140",</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>180</v>
+      </c>
+      <c r="B184" t="str">
+        <f t="shared" si="4"/>
+        <v>4120500030</v>
+      </c>
+      <c r="C184" t="str">
+        <f t="shared" si="5"/>
+        <v>"4120500030",</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>181</v>
+      </c>
+      <c r="B185" t="str">
+        <f t="shared" si="4"/>
+        <v>3015400020</v>
+      </c>
+      <c r="C185" t="str">
+        <f t="shared" si="5"/>
+        <v>"3015400020",</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>182</v>
+      </c>
+      <c r="B186" t="str">
+        <f t="shared" si="4"/>
+        <v>2004300510</v>
+      </c>
+      <c r="C186" t="str">
+        <f t="shared" si="5"/>
+        <v>"2004300510",</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>183</v>
+      </c>
+      <c r="B187" t="str">
+        <f t="shared" si="4"/>
+        <v>1053200400</v>
+      </c>
+      <c r="C187" t="str">
+        <f t="shared" si="5"/>
+        <v>"1053200400",</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>184</v>
+      </c>
+      <c r="B188" t="str">
+        <f t="shared" si="4"/>
+        <v>0542100300</v>
+      </c>
+      <c r="C188" t="str">
+        <f t="shared" si="5"/>
+        <v>"0542100300",</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>185</v>
+      </c>
+      <c r="B189" t="str">
+        <f t="shared" si="4"/>
+        <v>0431005200</v>
+      </c>
+      <c r="C189" t="str">
+        <f t="shared" si="5"/>
+        <v>"0431005200",</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>186</v>
+      </c>
+      <c r="B190" t="str">
+        <f t="shared" si="4"/>
+        <v>0320004105</v>
+      </c>
+      <c r="C190" t="str">
+        <f t="shared" si="5"/>
+        <v>"0320004105",</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>187</v>
+      </c>
+      <c r="B191" t="str">
+        <f t="shared" si="4"/>
+        <v>5210003004</v>
+      </c>
+      <c r="C191" t="str">
+        <f t="shared" si="5"/>
+        <v>"5210003004",</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>188</v>
+      </c>
+      <c r="B192" t="str">
+        <f t="shared" si="4"/>
+        <v>4105002003</v>
+      </c>
+      <c r="C192" t="str">
+        <f t="shared" si="5"/>
+        <v>"4105002003",</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>189</v>
+      </c>
+      <c r="B193" t="str">
+        <f t="shared" si="4"/>
+        <v>3004501002</v>
+      </c>
+      <c r="C193" t="str">
+        <f t="shared" si="5"/>
+        <v>"3004501002",</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>190</v>
+      </c>
+      <c r="B194" t="str">
+        <f t="shared" si="4"/>
+        <v>2053400001</v>
+      </c>
+      <c r="C194" t="str">
+        <f t="shared" si="5"/>
+        <v>"2053400001",</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>191</v>
+      </c>
+      <c r="B195" t="str">
+        <f t="shared" si="4"/>
+        <v>1042305000</v>
+      </c>
+      <c r="C195" t="str">
+        <f t="shared" si="5"/>
+        <v>"1042305000",</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>192</v>
+      </c>
+      <c r="B196" t="str">
+        <f t="shared" si="4"/>
+        <v>0531204000</v>
+      </c>
+      <c r="C196" t="str">
+        <f t="shared" si="5"/>
+        <v>"0531204000",</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>193</v>
+      </c>
+      <c r="B197" t="str">
+        <f t="shared" si="4"/>
+        <v>0420103500</v>
+      </c>
+      <c r="C197" t="str">
+        <f t="shared" si="5"/>
+        <v>"0420103500",</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>194</v>
+      </c>
+      <c r="B198" t="str">
+        <f t="shared" ref="B198:B243" si="6">LEFT(A198,10)</f>
+        <v>5310002400</v>
+      </c>
+      <c r="C198" t="str">
+        <f t="shared" ref="C198:C243" si="7" xml:space="preserve"> """"&amp;B198&amp;""","</f>
+        <v>"5310002400",</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>195</v>
+      </c>
+      <c r="B199" t="str">
+        <f t="shared" si="6"/>
+        <v>4200501300</v>
+      </c>
+      <c r="C199" t="str">
+        <f t="shared" si="7"/>
+        <v>"4200501300",</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>196</v>
+      </c>
+      <c r="B200" t="str">
+        <f t="shared" si="6"/>
+        <v>3100450200</v>
+      </c>
+      <c r="C200" t="str">
+        <f t="shared" si="7"/>
+        <v>"3100450200",</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>197</v>
+      </c>
+      <c r="B201" t="str">
+        <f t="shared" si="6"/>
+        <v>2050340100</v>
+      </c>
+      <c r="C201" t="str">
+        <f t="shared" si="7"/>
+        <v>"2050340100",</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>198</v>
+      </c>
+      <c r="B202" t="str">
+        <f t="shared" si="6"/>
+        <v>1040230050</v>
+      </c>
+      <c r="C202" t="str">
+        <f t="shared" si="7"/>
+        <v>"1040230050",</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>199</v>
+      </c>
+      <c r="B203" t="str">
+        <f t="shared" si="6"/>
+        <v>0530120040</v>
+      </c>
+      <c r="C203" t="str">
+        <f t="shared" si="7"/>
+        <v>"0530120040",</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>200</v>
+      </c>
+      <c r="B204" t="str">
+        <f t="shared" si="6"/>
+        <v>0425010030</v>
+      </c>
+      <c r="C204" t="str">
+        <f t="shared" si="7"/>
+        <v>"0425010030",</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>201</v>
+      </c>
+      <c r="B205" t="str">
+        <f t="shared" si="6"/>
+        <v>0314005020</v>
+      </c>
+      <c r="C205" t="str">
+        <f t="shared" si="7"/>
+        <v>"0314005020",</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>202</v>
+      </c>
+      <c r="B206" t="str">
+        <f t="shared" si="6"/>
+        <v>5203004010</v>
+      </c>
+      <c r="C206" t="str">
+        <f t="shared" si="7"/>
+        <v>"5203004010",</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>203</v>
+      </c>
+      <c r="B207" t="str">
+        <f t="shared" si="6"/>
+        <v>4102003500</v>
+      </c>
+      <c r="C207" t="str">
+        <f t="shared" si="7"/>
+        <v>"4102003500",</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>204</v>
+      </c>
+      <c r="B208" t="str">
+        <f t="shared" si="6"/>
+        <v>3001502400</v>
+      </c>
+      <c r="C208" t="str">
+        <f t="shared" si="7"/>
+        <v>"3001502400",</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>205</v>
+      </c>
+      <c r="B209" t="str">
+        <f t="shared" si="6"/>
+        <v>2050401300</v>
+      </c>
+      <c r="C209" t="str">
+        <f t="shared" si="7"/>
+        <v>"2050401300",</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>206</v>
+      </c>
+      <c r="B210" t="str">
+        <f t="shared" si="6"/>
+        <v>1540300200</v>
+      </c>
+      <c r="C210" t="str">
+        <f t="shared" si="7"/>
+        <v>"1540300200",</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>207</v>
+      </c>
+      <c r="B211" t="str">
+        <f t="shared" si="6"/>
+        <v>0430250100</v>
+      </c>
+      <c r="C211" t="str">
+        <f t="shared" si="7"/>
+        <v>"0430250100",</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>208</v>
+      </c>
+      <c r="B212" t="str">
+        <f t="shared" si="6"/>
+        <v>5320140000</v>
+      </c>
+      <c r="C212" t="str">
+        <f t="shared" si="7"/>
+        <v>"5320140000",</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>209</v>
+      </c>
+      <c r="B213" t="str">
+        <f t="shared" si="6"/>
+        <v>4210035000</v>
+      </c>
+      <c r="C213" t="str">
+        <f t="shared" si="7"/>
+        <v>"4210035000",</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>210</v>
+      </c>
+      <c r="B214" t="str">
+        <f t="shared" si="6"/>
+        <v>3105024000</v>
+      </c>
+      <c r="C214" t="str">
+        <f t="shared" si="7"/>
+        <v>"3105024000",</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>211</v>
+      </c>
+      <c r="B215" t="str">
+        <f t="shared" si="6"/>
+        <v>2054013000</v>
+      </c>
+      <c r="C215" t="str">
+        <f t="shared" si="7"/>
+        <v>"2054013000",</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>212</v>
+      </c>
+      <c r="B216" t="str">
+        <f t="shared" si="6"/>
+        <v>1043002500</v>
+      </c>
+      <c r="C216" t="str">
+        <f t="shared" si="7"/>
+        <v>"1043002500",</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>213</v>
+      </c>
+      <c r="B217" t="str">
+        <f t="shared" si="6"/>
+        <v>0032001405</v>
+      </c>
+      <c r="C217" t="str">
+        <f t="shared" si="7"/>
+        <v>"0032001405",</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>214</v>
+      </c>
+      <c r="B218" t="str">
+        <f t="shared" si="6"/>
+        <v>5021000304</v>
+      </c>
+      <c r="C218" t="str">
+        <f t="shared" si="7"/>
+        <v>"5021000304",</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>215</v>
+      </c>
+      <c r="B219" t="str">
+        <f t="shared" si="6"/>
+        <v>4510000203</v>
+      </c>
+      <c r="C219" t="str">
+        <f t="shared" si="7"/>
+        <v>"4510000203",</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>216</v>
+      </c>
+      <c r="B220" t="str">
+        <f t="shared" si="6"/>
+        <v>3400500102</v>
+      </c>
+      <c r="C220" t="str">
+        <f t="shared" si="7"/>
+        <v>"3400500102",</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>217</v>
+      </c>
+      <c r="B221" t="str">
+        <f t="shared" si="6"/>
+        <v>2300450001</v>
+      </c>
+      <c r="C221" t="str">
+        <f t="shared" si="7"/>
+        <v>"2300450001",</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>218</v>
+      </c>
+      <c r="B222" t="str">
+        <f t="shared" si="6"/>
+        <v>1205340000</v>
+      </c>
+      <c r="C222" t="str">
+        <f t="shared" si="7"/>
+        <v>"1205340000",</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>219</v>
+      </c>
+      <c r="B223" t="str">
+        <f t="shared" si="6"/>
+        <v>0154230000</v>
+      </c>
+      <c r="C223" t="str">
+        <f t="shared" si="7"/>
+        <v>"0154230000",</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>220</v>
+      </c>
+      <c r="B224" t="str">
+        <f t="shared" si="6"/>
+        <v>5043120000</v>
+      </c>
+      <c r="C224" t="str">
+        <f t="shared" si="7"/>
+        <v>"5043120000",</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>221</v>
+      </c>
+      <c r="B225" t="str">
+        <f t="shared" si="6"/>
+        <v>4532010000</v>
+      </c>
+      <c r="C225" t="str">
+        <f t="shared" si="7"/>
+        <v>"4532010000",</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>222</v>
+      </c>
+      <c r="B226" t="str">
+        <f t="shared" si="6"/>
+        <v>3421500000</v>
+      </c>
+      <c r="C226" t="str">
+        <f t="shared" si="7"/>
+        <v>"3421500000",</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>223</v>
+      </c>
+      <c r="B227" t="str">
+        <f t="shared" si="6"/>
+        <v>2310405000</v>
+      </c>
+      <c r="C227" t="str">
+        <f t="shared" si="7"/>
+        <v>"2310405000",</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>224</v>
+      </c>
+      <c r="B228" t="str">
+        <f t="shared" si="6"/>
+        <v>1200354000</v>
+      </c>
+      <c r="C228" t="str">
+        <f t="shared" si="7"/>
+        <v>"1200354000",</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>225</v>
+      </c>
+      <c r="B229" t="str">
+        <f t="shared" si="6"/>
+        <v>0150243000</v>
+      </c>
+      <c r="C229" t="str">
+        <f t="shared" si="7"/>
+        <v>"0150243000",</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>226</v>
+      </c>
+      <c r="B230" t="str">
+        <f t="shared" si="6"/>
+        <v>5040132000</v>
+      </c>
+      <c r="C230" t="str">
+        <f t="shared" si="7"/>
+        <v>"5040132000",</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>227</v>
+      </c>
+      <c r="B231" t="str">
+        <f t="shared" si="6"/>
+        <v>4030021050</v>
+      </c>
+      <c r="C231" t="str">
+        <f t="shared" si="7"/>
+        <v>"4030021050",</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>228</v>
+      </c>
+      <c r="B232" t="str">
+        <f t="shared" si="6"/>
+        <v>3025010040</v>
+      </c>
+      <c r="C232" t="str">
+        <f t="shared" si="7"/>
+        <v>"3025010040",</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>229</v>
+      </c>
+      <c r="B233" t="str">
+        <f t="shared" si="6"/>
+        <v>2514000030</v>
+      </c>
+      <c r="C233" t="str">
+        <f t="shared" si="7"/>
+        <v>"2514000030",</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>230</v>
+      </c>
+      <c r="B234" t="str">
+        <f t="shared" si="6"/>
+        <v>1403500020</v>
+      </c>
+      <c r="C234" t="str">
+        <f t="shared" si="7"/>
+        <v>"1403500020",</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>231</v>
+      </c>
+      <c r="B235" t="str">
+        <f t="shared" si="6"/>
+        <v>0302400015</v>
+      </c>
+      <c r="C235" t="str">
+        <f t="shared" si="7"/>
+        <v>"0302400015",</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>232</v>
+      </c>
+      <c r="B236" t="str">
+        <f t="shared" si="6"/>
+        <v>5201300004</v>
+      </c>
+      <c r="C236" t="str">
+        <f t="shared" si="7"/>
+        <v>"5201300004",</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>233</v>
+      </c>
+      <c r="B237" t="str">
+        <f t="shared" si="6"/>
+        <v>4150200003</v>
+      </c>
+      <c r="C237" t="str">
+        <f t="shared" si="7"/>
+        <v>"4150200003",</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>234</v>
+      </c>
+      <c r="B238" t="str">
+        <f t="shared" si="6"/>
+        <v>3040150002</v>
+      </c>
+      <c r="C238" t="str">
+        <f t="shared" si="7"/>
+        <v>"3040150002",</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>235</v>
+      </c>
+      <c r="B239" t="str">
+        <f t="shared" si="6"/>
+        <v>2530040001</v>
+      </c>
+      <c r="C239" t="str">
+        <f t="shared" si="7"/>
+        <v>"2530040001",</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>236</v>
+      </c>
+      <c r="B240" t="str">
+        <f t="shared" si="6"/>
+        <v>1420030500</v>
+      </c>
+      <c r="C240" t="str">
+        <f t="shared" si="7"/>
+        <v>"1420030500",</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>237</v>
+      </c>
+      <c r="B241" t="str">
+        <f t="shared" si="6"/>
+        <v>0315020400</v>
+      </c>
+      <c r="C241" t="str">
+        <f t="shared" si="7"/>
+        <v>"0315020400",</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>238</v>
+      </c>
+      <c r="B242" t="str">
+        <f t="shared" si="6"/>
+        <v>5204010300</v>
+      </c>
+      <c r="C242" t="str">
+        <f t="shared" si="7"/>
+        <v>"5204010300",</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>239</v>
+      </c>
+      <c r="B243" t="str">
+        <f t="shared" si="6"/>
+        <v>4103000205</v>
+      </c>
+      <c r="C243" t="str">
+        <f t="shared" si="7"/>
+        <v>"4103000205",</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>